--- a/output/fit_clients/fit_round_454.xlsx
+++ b/output/fit_clients/fit_round_454.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1884895041.724314</v>
+        <v>2409526779.278161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0891628295582695</v>
+        <v>0.08167912128307221</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03782712379305961</v>
+        <v>0.04438586708758291</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>942447501.0281864</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2462588639.85881</v>
+        <v>1769414263.559082</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1406715020317094</v>
+        <v>0.1449159157928616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04767098123475431</v>
+        <v>0.03044229906429618</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1231294431.644595</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4632067407.773724</v>
+        <v>4705018153.516249</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1234041570336463</v>
+        <v>0.1483911095860708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03242323472929012</v>
+        <v>0.03742203387259831</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>164</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2316033762.873024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3276553883.823067</v>
+        <v>4164921243.595891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09138048849748635</v>
+        <v>0.0995467085952205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04424213477458709</v>
+        <v>0.03651355966754018</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>168</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1638276993.508269</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2712879168.87117</v>
+        <v>2455172993.01059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1177754892601243</v>
+        <v>0.1434082654262661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05608964952100826</v>
+        <v>0.05354277914358168</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1356439536.899156</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2095546787.955173</v>
+        <v>2261534126.955578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08666194553852137</v>
+        <v>0.07205235675218886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03940627115802437</v>
+        <v>0.03188773570767509</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1047773445.922827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2635108776.406818</v>
+        <v>3866088480.070637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2180693425270246</v>
+        <v>0.2124372871800073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02212890809670008</v>
+        <v>0.03091527444154569</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>145</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1317554408.436724</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1557938868.841066</v>
+        <v>1423818552.714391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1776025001221953</v>
+        <v>0.1941032236576707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02982485132810487</v>
+        <v>0.02672042919811393</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>778969522.383063</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5715641739.918333</v>
+        <v>3701220734.341557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1797834402596769</v>
+        <v>0.1530767713601258</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04820374400957806</v>
+        <v>0.0466097267305421</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>191</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2857821024.701833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4201448065.51325</v>
+        <v>3634265423.954953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1612100391117934</v>
+        <v>0.1730680972701427</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03979896428381691</v>
+        <v>0.0411142330953059</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>188</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2100724059.467272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2085624721.712822</v>
+        <v>2361962408.955268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1687328005750768</v>
+        <v>0.1954887150679814</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03362715184433394</v>
+        <v>0.03715426010851228</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>154</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1042812295.140585</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5172811444.239518</v>
+        <v>3376062807.535372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09910389460754808</v>
+        <v>0.0639109288200372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02002264191355117</v>
+        <v>0.02611495201959406</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>153</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2586405717.500614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3297890463.448107</v>
+        <v>3713501692.653023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1848897094598705</v>
+        <v>0.1860021692772447</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02903700782167766</v>
+        <v>0.04086043197769562</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>146</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1648945244.611794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1584279145.164367</v>
+        <v>1577050815.593124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07101939428561589</v>
+        <v>0.1031039043344042</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0444752099443243</v>
+        <v>0.03286148907301597</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>792139677.2216471</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2335229247.782665</v>
+        <v>1895029688.552877</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08175385912286376</v>
+        <v>0.09394942547069697</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04722146738963248</v>
+        <v>0.03390212244932434</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1167614669.441657</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5170293865.600605</v>
+        <v>3928028170.614102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1385058942349821</v>
+        <v>0.1309605130756436</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04468784447512312</v>
+        <v>0.04637269384519664</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2585146909.531347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3835761394.76338</v>
+        <v>2623201937.40771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1816401867888622</v>
+        <v>0.1535820492384176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02484237657911043</v>
+        <v>0.02224755149183062</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>149</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1917880667.106619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1098565906.904955</v>
+        <v>1362533950.579054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1403965209989246</v>
+        <v>0.1379017193485285</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02651878394894706</v>
+        <v>0.01884621789567473</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>549283006.6898235</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2210698772.763248</v>
+        <v>2695964374.411885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1208776945269529</v>
+        <v>0.1078581863115714</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02396154278208367</v>
+        <v>0.02155787060362307</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1105349390.288491</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1672500410.219609</v>
+        <v>1973533022.16571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07420934605725267</v>
+        <v>0.08436862601841585</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03436670108745322</v>
+        <v>0.03951561414469867</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>836250272.4066836</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3748995901.30075</v>
+        <v>2458573823.708054</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08985871423846649</v>
+        <v>0.141886331816024</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03702727307734012</v>
+        <v>0.04298914321430548</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>127</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1874497967.348995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184992483.694968</v>
+        <v>1535636678.988517</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1530146584662035</v>
+        <v>0.1755819713656913</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04892627537864754</v>
+        <v>0.03764619728031311</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592496280.871637</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3269946627.452642</v>
+        <v>3617455894.902963</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1467688200121376</v>
+        <v>0.1131656213860923</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03524633310496234</v>
+        <v>0.03016300663761861</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1634973330.837909</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1290572280.778572</v>
+        <v>1152431320.767918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08674315253639683</v>
+        <v>0.1108309667279325</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02280511249494916</v>
+        <v>0.0223019225829628</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>645286137.5364344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1339402851.017048</v>
+        <v>1297572102.113981</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08001892388862082</v>
+        <v>0.09947938233832226</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02616560379300085</v>
+        <v>0.02534432243144877</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>669701480.6851916</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4541712352.005996</v>
+        <v>4493262563.866556</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1325730689244779</v>
+        <v>0.1388171499145183</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02280582735675123</v>
+        <v>0.01930009387811452</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2270856159.248445</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3846997789.816778</v>
+        <v>3288470361.758181</v>
       </c>
       <c r="F28" t="n">
-        <v>0.116157539699277</v>
+        <v>0.1401916615906081</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03891522911103929</v>
+        <v>0.04937000670744751</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1923498979.669967</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5193096924.225203</v>
+        <v>3819391566.217592</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1346252155467615</v>
+        <v>0.1316902235432526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03306651225856978</v>
+        <v>0.04314722665388337</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>201</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2596548396.365446</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2185440020.056722</v>
+        <v>1713216577.483092</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1324665355336433</v>
+        <v>0.1110079280321918</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03953542201802632</v>
+        <v>0.02566097867587176</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1092720068.628042</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1239398885.227359</v>
+        <v>1468020713.411845</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07185880808068362</v>
+        <v>0.09024139532181662</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04227827075689102</v>
+        <v>0.037294961553741</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>619699384.8146205</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1806407330.435684</v>
+        <v>1420994195.681364</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09558713443988237</v>
+        <v>0.08496441724430678</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03287126724921922</v>
+        <v>0.03008718877182501</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>903203797.047722</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3031885630.501972</v>
+        <v>2236513006.896149</v>
       </c>
       <c r="F33" t="n">
-        <v>0.149589994546673</v>
+        <v>0.1258860825129569</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05536288564164919</v>
+        <v>0.0461279139244783</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>139</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1515942808.167459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1519533486.481164</v>
+        <v>1210094824.282544</v>
       </c>
       <c r="F34" t="n">
-        <v>0.105452500857976</v>
+        <v>0.1043857849862145</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02097538968302618</v>
+        <v>0.02737306033287471</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>759766695.8842281</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224600373.265208</v>
+        <v>1033123682.191745</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09724841216314033</v>
+        <v>0.1052240341639697</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03884312191228983</v>
+        <v>0.04413620323124957</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>612300155.9785281</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2776190994.169232</v>
+        <v>2585239688.528753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1660313986630236</v>
+        <v>0.1590860027477009</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02180640667150292</v>
+        <v>0.02598342529977828</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1388095496.961971</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2635736444.238857</v>
+        <v>2844264106.579557</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1099809270528836</v>
+        <v>0.1054038862812476</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02824509062881484</v>
+        <v>0.04169176055872747</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1317868336.853158</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2055526531.694684</v>
+        <v>1704475289.292892</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1008696081923568</v>
+        <v>0.07990550594105841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02584532294614425</v>
+        <v>0.03833464958120009</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1027763236.648631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1688077712.599686</v>
+        <v>1712559456.621486</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1799870327630692</v>
+        <v>0.1215014952274512</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02392672404374185</v>
+        <v>0.03289956393808696</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>844038898.1981547</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581163815.447372</v>
+        <v>1734165897.620761</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1441398482498275</v>
+        <v>0.146330217039613</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04273770292950375</v>
+        <v>0.04247870513338732</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>790581853.6306767</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2419016348.802962</v>
+        <v>1996614769.706791</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1080179025882271</v>
+        <v>0.1546646180227942</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0292364323626722</v>
+        <v>0.03493749665147901</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1209508207.594312</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4289152020.483308</v>
+        <v>3250319482.582782</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1040793675433275</v>
+        <v>0.08704844794572014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03645999407752826</v>
+        <v>0.04351213913925096</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2144576059.429016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2208486296.753929</v>
+        <v>2734987947.716362</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1907523578632315</v>
+        <v>0.167557791159379</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01567398951495817</v>
+        <v>0.02405838276869088</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>158</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1104243226.361211</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2041435781.641335</v>
+        <v>2123231016.579366</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06196687206783354</v>
+        <v>0.08076798091371497</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02949792531163085</v>
+        <v>0.035335749019469</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1020718005.435374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1545047737.977537</v>
+        <v>1608700052.41208</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1396512573588031</v>
+        <v>0.1560433588227814</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03803194970420953</v>
+        <v>0.04655168965621937</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>772523813.9970611</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5477088236.884836</v>
+        <v>5228018626.098317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1269536326324022</v>
+        <v>0.1386732318893499</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05478723395429725</v>
+        <v>0.05118870369076069</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>162</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2738544172.575469</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4779865477.81229</v>
+        <v>4514716987.402162</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1386053732876603</v>
+        <v>0.1410657019023311</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03597518224650548</v>
+        <v>0.04242010400716399</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2389932782.255589</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4539447513.869186</v>
+        <v>3036932368.281719</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0903868261166962</v>
+        <v>0.07700588642773924</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02917284423599563</v>
+        <v>0.02945663162175158</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2269723759.946929</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1540141332.914957</v>
+        <v>1753389873.100087</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1748062833926654</v>
+        <v>0.1277397348455231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03561733778565511</v>
+        <v>0.04110156922396117</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>770070692.2500218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3330224345.276851</v>
+        <v>2812561385.016562</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1314746433187197</v>
+        <v>0.158211957391569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04267445831059648</v>
+        <v>0.04224685004585556</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1665112208.996993</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1082773082.681661</v>
+        <v>1438198718.881301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1862396569701358</v>
+        <v>0.1391571283510373</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03271527235882665</v>
+        <v>0.03933936636000326</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>541386611.9137317</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3289150616.105783</v>
+        <v>3907545947.306354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1025911808294363</v>
+        <v>0.1108188861339979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04969245144850813</v>
+        <v>0.05108998981327328</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>187</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1644575406.384156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3587469435.330863</v>
+        <v>2691050152.178299</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1364836666076991</v>
+        <v>0.1891776228449726</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02668179653783285</v>
+        <v>0.03490490938882079</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1793734709.573126</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4919050761.150746</v>
+        <v>4364888810.926756</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1606071820343207</v>
+        <v>0.1195707088410733</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04034775070571181</v>
+        <v>0.04561964119048815</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2459525516.847413</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3016058672.008382</v>
+        <v>4276252200.869986</v>
       </c>
       <c r="F55" t="n">
-        <v>0.184098730078752</v>
+        <v>0.2156302162221561</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02913245688831803</v>
+        <v>0.02109986099899136</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>122</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1508029267.497122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1827466367.062142</v>
+        <v>1598567918.51658</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1042996448007385</v>
+        <v>0.1310879523658436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03667670176423436</v>
+        <v>0.04246212174677021</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>913733177.2599267</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4275350829.745818</v>
+        <v>2826281942.079846</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570252684793932</v>
+        <v>0.1798430684720388</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0202406952545921</v>
+        <v>0.02662900225247701</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>144</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2137675526.379383</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590335389.741455</v>
+        <v>1836293770.000349</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2000708699824092</v>
+        <v>0.1461993760859848</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0317501170153377</v>
+        <v>0.03218359292860184</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>795167717.7944266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4530490476.23876</v>
+        <v>4155216008.954726</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1299832227608531</v>
+        <v>0.1279286316793141</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03901984970817003</v>
+        <v>0.04054897950407529</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2265245188.482635</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2891426044.270576</v>
+        <v>2526332277.385373</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1842977465998009</v>
+        <v>0.1335316264251127</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02647581015805387</v>
+        <v>0.02558512957468946</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1445713081.115974</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3262091888.781256</v>
+        <v>2817409310.753307</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1222311582809898</v>
+        <v>0.1582521669434143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02248732189876941</v>
+        <v>0.02468143066766778</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>157</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1631045900.158247</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1387804275.070733</v>
+        <v>1458353332.186925</v>
       </c>
       <c r="F62" t="n">
-        <v>0.121903617351193</v>
+        <v>0.1775795764544547</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04210441350962826</v>
+        <v>0.04115273394314815</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>693902103.75245</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4655847968.893274</v>
+        <v>4980511073.308205</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1067252355128195</v>
+        <v>0.08187437448089942</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03323552272605394</v>
+        <v>0.04290496283941588</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2327924017.566681</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5524361642.192899</v>
+        <v>5559836894.726062</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1888307181369877</v>
+        <v>0.1685564742482624</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02685877869141093</v>
+        <v>0.03506482207758847</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>141</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2762180964.199606</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3778557712.388222</v>
+        <v>5967358255.999953</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1050568367814665</v>
+        <v>0.1049691409714899</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02425445052855335</v>
+        <v>0.02531322881878484</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>163</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1889278888.01124</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3730559433.432649</v>
+        <v>5044507260.749482</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1166356486442042</v>
+        <v>0.1081984082186092</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03497514394456148</v>
+        <v>0.0438203344072386</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1865279675.886059</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2983938676.141448</v>
+        <v>2685745264.770647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08346018573699344</v>
+        <v>0.08759720711273775</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03893085936828309</v>
+        <v>0.04631128433017786</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>146</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1491969357.733832</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5449674018.218101</v>
+        <v>4644655566.74108</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1341865017216696</v>
+        <v>0.1202249981655255</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03262217190611896</v>
+        <v>0.03849306234850201</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2724837092.763429</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1664635406.277386</v>
+        <v>2231690656.873161</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1251708983753141</v>
+        <v>0.1481565165769584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03981424867373691</v>
+        <v>0.04883165579397903</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>832317664.7526195</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708034584.099934</v>
+        <v>2745823710.59507</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647727957423169</v>
+        <v>0.08136400076977403</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03764614470113369</v>
+        <v>0.04832893627137888</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>130</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1854017315.114331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5528952343.269655</v>
+        <v>4051272339.893309</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1394472742188813</v>
+        <v>0.150390577501494</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02675840309680829</v>
+        <v>0.02969383072956394</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>166</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2764476316.884231</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2149831938.857725</v>
+        <v>1885436082.948013</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09105486546334018</v>
+        <v>0.1071169362957643</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03319965974760286</v>
+        <v>0.05097172733142657</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1074915891.62527</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3294471313.400362</v>
+        <v>3507081756.932834</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1056214800356244</v>
+        <v>0.1096928918134805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03406643973490198</v>
+        <v>0.03521968333326889</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>173</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1647235625.728255</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2757489828.454272</v>
+        <v>2709402546.598933</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1834087833217689</v>
+        <v>0.1801669424670153</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02673197169369063</v>
+        <v>0.02417484191679296</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>155</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1378745000.63412</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1742161342.420004</v>
+        <v>1506002567.848601</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460311991462132</v>
+        <v>0.1378297042310812</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02437522672827141</v>
+        <v>0.03234019162389475</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>871080659.5847307</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4836219441.76841</v>
+        <v>3284632855.896177</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08232830164746059</v>
+        <v>0.1219947461401725</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02491204562249574</v>
+        <v>0.03241708965575731</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2418109740.698255</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1446156369.467221</v>
+        <v>2283957486.659641</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1343467096155284</v>
+        <v>0.1651084637543512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03089896626043584</v>
+        <v>0.02550219706411068</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>723078164.4478528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4228348676.648248</v>
+        <v>4666838192.561928</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1246514451640255</v>
+        <v>0.1002239786181581</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03479962536642343</v>
+        <v>0.05655043488660803</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>158</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2114174287.712563</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1704916668.967171</v>
+        <v>1239185883.216396</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1198550965057541</v>
+        <v>0.1550644805960222</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04034479011089401</v>
+        <v>0.03134094897977634</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>852458404.5241334</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4812456422.086177</v>
+        <v>4242602722.283212</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07533046985951207</v>
+        <v>0.08843183989082659</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03246983649773703</v>
+        <v>0.03370114640839227</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>98</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2406228250.927888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4057099726.616508</v>
+        <v>3917294846.846978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1056454142688822</v>
+        <v>0.1139455913041019</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02631309287839062</v>
+        <v>0.02266930322224069</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>104</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2028549828.664418</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5279497096.753044</v>
+        <v>3648023388.824146</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1392040511709082</v>
+        <v>0.1670256787039158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01943245850319269</v>
+        <v>0.028510153254218</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>159</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2639748516.747428</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1998478320.036941</v>
+        <v>1809591149.599284</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1455983976892985</v>
+        <v>0.1433426095463532</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0401130629116223</v>
+        <v>0.03042190708940006</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>999239145.1287292</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2199933144.006413</v>
+        <v>1713827955.06027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1134247065500852</v>
+        <v>0.09886881022207485</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04467192749549757</v>
+        <v>0.03672301171645542</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1099966547.735187</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2254719354.100847</v>
+        <v>2239727931.422577</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1781331608519978</v>
+        <v>0.1417104002719391</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04216834049249679</v>
+        <v>0.04295307345391305</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>170</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1127359654.942731</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2440408608.575452</v>
+        <v>2671556009.651961</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1342659089266299</v>
+        <v>0.1515827916909008</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02316391918636372</v>
+        <v>0.02169456321553768</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1220204393.166427</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1176378235.333017</v>
+        <v>1193550519.182013</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1425104158390894</v>
+        <v>0.1160827619835503</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02931773510793588</v>
+        <v>0.03547461059993108</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>588189167.220266</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3115222537.351385</v>
+        <v>3731232609.734066</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1482702633037966</v>
+        <v>0.1265401357529058</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02480575266744867</v>
+        <v>0.0312685145677984</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>180</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1557611310.52028</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2649553830.148551</v>
+        <v>2408495031.907994</v>
       </c>
       <c r="F89" t="n">
-        <v>0.123747332745289</v>
+        <v>0.09642283852281951</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02743519081519754</v>
+        <v>0.03789449991624108</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1324776978.892614</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1396454955.218786</v>
+        <v>1915550276.405314</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09643454591601347</v>
+        <v>0.1046660475624259</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05456634307728728</v>
+        <v>0.04051600999395233</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>698227437.4065903</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1536863902.678912</v>
+        <v>1627171050.557576</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1238516819447784</v>
+        <v>0.1897338529731487</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04846204250397486</v>
+        <v>0.04282325895648637</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>768431985.3524319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2543779793.484929</v>
+        <v>3003480617.204173</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003561583998705</v>
+        <v>0.1073710372059481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03706856711635151</v>
+        <v>0.04318552831951596</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1271889884.029555</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4715165326.936624</v>
+        <v>3307959858.656042</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09600038521358877</v>
+        <v>0.0942691613684357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03582603341844746</v>
+        <v>0.04128521651282446</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>138</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2357582617.8599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2199216092.198371</v>
+        <v>2310355757.865419</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1224684715762474</v>
+        <v>0.1183511575757401</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02961847589110973</v>
+        <v>0.0400249194712019</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1099608070.369726</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2866514877.777385</v>
+        <v>2093443843.098351</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1229433482035509</v>
+        <v>0.1371445003682286</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03999836063860363</v>
+        <v>0.04929362126312754</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1433257448.378749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1847620836.387287</v>
+        <v>1876302487.406054</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1102853322994226</v>
+        <v>0.1177493583271437</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02963117064168885</v>
+        <v>0.03380872217136225</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>923810421.4601749</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5084500678.929746</v>
+        <v>4550813959.102918</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320599725687349</v>
+        <v>0.1618688660165758</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02584980323620306</v>
+        <v>0.0185983870323398</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2542250483.074295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2823706770.858994</v>
+        <v>3007811653.210577</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09824447980081406</v>
+        <v>0.126080647528712</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02753600596298739</v>
+        <v>0.03005440671785139</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1411853358.194186</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2954370149.81487</v>
+        <v>2078566373.475408</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105017159937627</v>
+        <v>0.08958078035228763</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02469896488144998</v>
+        <v>0.02224571447074103</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>143</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1477185057.622153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4038927973.886847</v>
+        <v>4389890252.859723</v>
       </c>
       <c r="F100" t="n">
-        <v>0.119335811635581</v>
+        <v>0.1515517318258074</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01766990838790349</v>
+        <v>0.02215676280118988</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>139</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2019464060.74402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3059142532.35448</v>
+        <v>3257738222.383719</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1842023223770838</v>
+        <v>0.2071172034226738</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04930229774803955</v>
+        <v>0.05739151939280639</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>186</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1529571363.044372</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_454.xlsx
+++ b/output/fit_clients/fit_round_454.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2409526779.278161</v>
+        <v>2352855021.416554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08167912128307221</v>
+        <v>0.09814849928835671</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04438586708758291</v>
+        <v>0.0312022743487612</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1769414263.559082</v>
+        <v>1971567206.28957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1449159157928616</v>
+        <v>0.116799238510877</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03044229906429618</v>
+        <v>0.04535110717021213</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4705018153.516249</v>
+        <v>3847557595.649981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1483911095860708</v>
+        <v>0.1655375360351274</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03742203387259831</v>
+        <v>0.03557106432126484</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4164921243.595891</v>
+        <v>3029069975.13203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0995467085952205</v>
+        <v>0.0826102751151207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03651355966754018</v>
+        <v>0.0479133500764073</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2455172993.01059</v>
+        <v>2272016731.514667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434082654262661</v>
+        <v>0.116686338829915</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05354277914358168</v>
+        <v>0.0405147513275168</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2261534126.955578</v>
+        <v>2204528529.420143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07205235675218886</v>
+        <v>0.07017615083865487</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03188773570767509</v>
+        <v>0.03821405712682169</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3866088480.070637</v>
+        <v>3969461907.898711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2124372871800073</v>
+        <v>0.1841295190530786</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03091527444154569</v>
+        <v>0.02657147419174114</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1423818552.714391</v>
+        <v>1776266633.600101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1941032236576707</v>
+        <v>0.1416466163508791</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02672042919811393</v>
+        <v>0.02341002196577755</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3701220734.341557</v>
+        <v>4037687902.659537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1530767713601258</v>
+        <v>0.1395179945472687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0466097267305421</v>
+        <v>0.03674388499630356</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3634265423.954953</v>
+        <v>3483073633.500276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1730680972701427</v>
+        <v>0.1883775292399307</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0411142330953059</v>
+        <v>0.04508938015030421</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2361962408.955268</v>
+        <v>3301753121.554539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954887150679814</v>
+        <v>0.1634347916414276</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03715426010851228</v>
+        <v>0.04121580415900473</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3376062807.535372</v>
+        <v>4906318155.224816</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639109288200372</v>
+        <v>0.07355533844003435</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02611495201959406</v>
+        <v>0.02935737212691842</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3713501692.653023</v>
+        <v>3594312869.284818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1860021692772447</v>
+        <v>0.1352820201863469</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04086043197769562</v>
+        <v>0.03950398885389058</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1577050815.593124</v>
+        <v>1407286045.314788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1031039043344042</v>
+        <v>0.09397142681243599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03286148907301597</v>
+        <v>0.03052604465637047</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1895029688.552877</v>
+        <v>2822507960.069502</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09394942547069697</v>
+        <v>0.07022558759931145</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03390212244932434</v>
+        <v>0.05072561659869534</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3928028170.614102</v>
+        <v>5034791648.143398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1309605130756436</v>
+        <v>0.1592728495692977</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04637269384519664</v>
+        <v>0.04685023130415499</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2623201937.40771</v>
+        <v>2606352919.138191</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1535820492384176</v>
+        <v>0.1739927527967316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02224755149183062</v>
+        <v>0.02874692078458034</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1362533950.579054</v>
+        <v>1186457508.735258</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1379017193485285</v>
+        <v>0.1851676012859613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01884621789567473</v>
+        <v>0.02579325538062428</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2695964374.411885</v>
+        <v>1854276017.54539</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1078581863115714</v>
+        <v>0.125268459418132</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02155787060362307</v>
+        <v>0.03157002813413</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1973533022.16571</v>
+        <v>1882801462.964634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08436862601841585</v>
+        <v>0.07254226221667458</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03951561414469867</v>
+        <v>0.03414682995459435</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2458573823.708054</v>
+        <v>2570140431.868927</v>
       </c>
       <c r="F22" t="n">
-        <v>0.141886331816024</v>
+        <v>0.1170662947140167</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04298914321430548</v>
+        <v>0.03889402090804979</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1535636678.988517</v>
+        <v>1199227098.376547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1755819713656913</v>
+        <v>0.134368045606114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03764619728031311</v>
+        <v>0.05169917033693865</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3617455894.902963</v>
+        <v>3989217991.007987</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1131656213860923</v>
+        <v>0.1454818640184752</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03016300663761861</v>
+        <v>0.02328070964298205</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1152431320.767918</v>
+        <v>1403158008.620881</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1108309667279325</v>
+        <v>0.08814697099489263</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0223019225829628</v>
+        <v>0.02901806662684835</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297572102.113981</v>
+        <v>1100112324.283081</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09947938233832226</v>
+        <v>0.1040329104113795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02534432243144877</v>
+        <v>0.02918244328975745</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4493262563.866556</v>
+        <v>3608011338.275656</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1388171499145183</v>
+        <v>0.1324937014249153</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01930009387811452</v>
+        <v>0.02725383984341364</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3288470361.758181</v>
+        <v>2443902009.478167</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1401916615906081</v>
+        <v>0.1191994037595587</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04937000670744751</v>
+        <v>0.03664158740196181</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3819391566.217592</v>
+        <v>4655492507.71165</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1316902235432526</v>
+        <v>0.09909967724901128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04314722665388337</v>
+        <v>0.03065688671843018</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1713216577.483092</v>
+        <v>1855856153.329927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1110079280321918</v>
+        <v>0.1288697535515153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02566097867587176</v>
+        <v>0.03836773563818318</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1468020713.411845</v>
+        <v>1183059683.326967</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09024139532181662</v>
+        <v>0.1058758818017193</v>
       </c>
       <c r="G31" t="n">
-        <v>0.037294961553741</v>
+        <v>0.03385680801896324</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1420994195.681364</v>
+        <v>1548294782.534789</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08496441724430678</v>
+        <v>0.1134164349737476</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03008718877182501</v>
+        <v>0.03468560731926788</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2236513006.896149</v>
+        <v>2368972591.204842</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1258860825129569</v>
+        <v>0.2062641141171037</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0461279139244783</v>
+        <v>0.04292622153080924</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210094824.282544</v>
+        <v>1276044588.113661</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1043857849862145</v>
+        <v>0.08261497543882249</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02737306033287471</v>
+        <v>0.0229628876026733</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033123682.191745</v>
+        <v>1332303076.182346</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1052240341639697</v>
+        <v>0.1003906472931458</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04413620323124957</v>
+        <v>0.03424231145967858</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2585239688.528753</v>
+        <v>2102916553.224577</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1590860027477009</v>
+        <v>0.1282997863697231</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02598342529977828</v>
+        <v>0.02669134560836246</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2844264106.579557</v>
+        <v>2072314555.867697</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054038862812476</v>
+        <v>0.0911310279898252</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04169176055872747</v>
+        <v>0.0425861763899603</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1704475289.292892</v>
+        <v>2124741851.002265</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07990550594105841</v>
+        <v>0.1090599058613196</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03833464958120009</v>
+        <v>0.03167493535711085</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1712559456.621486</v>
+        <v>2170896218.27433</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1215014952274512</v>
+        <v>0.1711598643898048</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03289956393808696</v>
+        <v>0.02872365303536122</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1734165897.620761</v>
+        <v>1170288088.080377</v>
       </c>
       <c r="F40" t="n">
-        <v>0.146330217039613</v>
+        <v>0.1025941151755686</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04247870513338732</v>
+        <v>0.04142797295458964</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1996614769.706791</v>
+        <v>1915595605.408737</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1546646180227942</v>
+        <v>0.1378051414444813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03493749665147901</v>
+        <v>0.03876561907351252</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3250319482.582782</v>
+        <v>3940921137.933788</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08704844794572014</v>
+        <v>0.1261222432653206</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04351213913925096</v>
+        <v>0.04194572347451359</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2734987947.716362</v>
+        <v>2795749826.544498</v>
       </c>
       <c r="F43" t="n">
-        <v>0.167557791159379</v>
+        <v>0.1924338157073879</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02405838276869088</v>
+        <v>0.02195336501726933</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2123231016.579366</v>
+        <v>1555777659.263929</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08076798091371497</v>
+        <v>0.08954431549854078</v>
       </c>
       <c r="G44" t="n">
-        <v>0.035335749019469</v>
+        <v>0.02435801642806127</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1608700052.41208</v>
+        <v>2087125501.668318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1560433588227814</v>
+        <v>0.1928779820559456</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04655168965621937</v>
+        <v>0.05098736805178353</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5228018626.098317</v>
+        <v>4070857363.79975</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1386732318893499</v>
+        <v>0.1500726581849303</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05118870369076069</v>
+        <v>0.04254422511869872</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4514716987.402162</v>
+        <v>4572584640.238693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1410657019023311</v>
+        <v>0.1541661068651609</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04242010400716399</v>
+        <v>0.03639764116876733</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3036932368.281719</v>
+        <v>2890790779.536972</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07700588642773924</v>
+        <v>0.09740465647922361</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02945663162175158</v>
+        <v>0.02968942734690726</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1753389873.100087</v>
+        <v>1337067218.405764</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1277397348455231</v>
+        <v>0.1212374159895979</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04110156922396117</v>
+        <v>0.03036812118694283</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2812561385.016562</v>
+        <v>3457107904.669405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.158211957391569</v>
+        <v>0.1081080058556007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04224685004585556</v>
+        <v>0.04516207100158476</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1438198718.881301</v>
+        <v>1242177413.801335</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1391571283510373</v>
+        <v>0.1296525034443509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03933936636000326</v>
+        <v>0.04665364647255992</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3907545947.306354</v>
+        <v>4915420744.399193</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1108188861339979</v>
+        <v>0.1301863030919096</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05108998981327328</v>
+        <v>0.04888345885334388</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2691050152.178299</v>
+        <v>2345604265.637544</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1891776228449726</v>
+        <v>0.133753655508522</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03490490938882079</v>
+        <v>0.02397206206755595</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4364888810.926756</v>
+        <v>4963165797.655515</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1195707088410733</v>
+        <v>0.1374952694198326</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04561964119048815</v>
+        <v>0.04387043066663589</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4276252200.869986</v>
+        <v>4151645930.302278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2156302162221561</v>
+        <v>0.2179168066690929</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02109986099899136</v>
+        <v>0.02655883467190295</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1598567918.51658</v>
+        <v>1487386382.93565</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1310879523658436</v>
+        <v>0.1074585140763458</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04246212174677021</v>
+        <v>0.05365902151829335</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2826281942.079846</v>
+        <v>4334951064.42453</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798430684720388</v>
+        <v>0.1380903432517694</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02662900225247701</v>
+        <v>0.01831080479410843</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1836293770.000349</v>
+        <v>1366835823.461275</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1461993760859848</v>
+        <v>0.202873027020457</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03218359292860184</v>
+        <v>0.02542033356162785</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4155216008.954726</v>
+        <v>5348305851.720627</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279286316793141</v>
+        <v>0.1075293773714943</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04054897950407529</v>
+        <v>0.04592178332813786</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2526332277.385373</v>
+        <v>3249837348.146305</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1335316264251127</v>
+        <v>0.2064595166191182</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02558512957468946</v>
+        <v>0.0296922966264324</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2817409310.753307</v>
+        <v>2129984630.15793</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1582521669434143</v>
+        <v>0.1593426722379688</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02468143066766778</v>
+        <v>0.03015767666031095</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1458353332.186925</v>
+        <v>1669112981.610254</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1775795764544547</v>
+        <v>0.1737978255424396</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04115273394314815</v>
+        <v>0.04765935495182264</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4980511073.308205</v>
+        <v>3604227290.290029</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08187437448089942</v>
+        <v>0.1071589117845038</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04290496283941588</v>
+        <v>0.03170029759277734</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5559836894.726062</v>
+        <v>4896653459.167329</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1685564742482624</v>
+        <v>0.1771669719955277</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03506482207758847</v>
+        <v>0.03292661618285044</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5967358255.999953</v>
+        <v>5095294835.152386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1049691409714899</v>
+        <v>0.1468675969313631</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02531322881878484</v>
+        <v>0.02847837964956484</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5044507260.749482</v>
+        <v>4742786139.537786</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081984082186092</v>
+        <v>0.1631793217499775</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0438203344072386</v>
+        <v>0.03806695171790811</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2685745264.770647</v>
+        <v>3350853644.636641</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08759720711273775</v>
+        <v>0.08533800454064065</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04631128433017786</v>
+        <v>0.03885675789431017</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4644655566.74108</v>
+        <v>4144132441.557008</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1202249981655255</v>
+        <v>0.1542240433713387</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03849306234850201</v>
+        <v>0.04841903923961813</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2231690656.873161</v>
+        <v>2319089835.789822</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1481565165769584</v>
+        <v>0.1771071985805725</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04883165579397903</v>
+        <v>0.05812913616746407</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2745823710.59507</v>
+        <v>2799355943.657809</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08136400076977403</v>
+        <v>0.0996077280103229</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04832893627137888</v>
+        <v>0.0377976258719732</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4051272339.893309</v>
+        <v>5621763804.103412</v>
       </c>
       <c r="F71" t="n">
-        <v>0.150390577501494</v>
+        <v>0.1644021960024928</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02969383072956394</v>
+        <v>0.02912740843932848</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885436082.948013</v>
+        <v>1802519326.471445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1071169362957643</v>
+        <v>0.1036219811982065</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05097172733142657</v>
+        <v>0.04107032039396454</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3507081756.932834</v>
+        <v>3523437415.221021</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1096928918134805</v>
+        <v>0.1081568002626849</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03521968333326889</v>
+        <v>0.04371173084777778</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2709402546.598933</v>
+        <v>2957184589.6954</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1801669424670153</v>
+        <v>0.1153458977422372</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02417484191679296</v>
+        <v>0.02472327119105261</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1506002567.848601</v>
+        <v>2041445543.49551</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1378297042310812</v>
+        <v>0.1446446007171124</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03234019162389475</v>
+        <v>0.02494542041337852</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3284632855.896177</v>
+        <v>3669333210.77426</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1219947461401725</v>
+        <v>0.08825198430416395</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03241708965575731</v>
+        <v>0.02549483693255501</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2283957486.659641</v>
+        <v>1620419580.807054</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1651084637543512</v>
+        <v>0.1267226746072685</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02550219706411068</v>
+        <v>0.02056757035156422</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4666838192.561928</v>
+        <v>3265351840.487564</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1002239786181581</v>
+        <v>0.08484248961049368</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05655043488660803</v>
+        <v>0.0528956862459591</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1239185883.216396</v>
+        <v>1211282232.510529</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1550644805960222</v>
+        <v>0.1697708171441261</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03134094897977634</v>
+        <v>0.03116809888261093</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4242602722.283212</v>
+        <v>3485732120.952898</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08843183989082659</v>
+        <v>0.109872451531163</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03370114640839227</v>
+        <v>0.02545900770935143</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3917294846.846978</v>
+        <v>3189354278.762652</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139455913041019</v>
+        <v>0.134192771237983</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02266930322224069</v>
+        <v>0.02436531587544113</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3648023388.824146</v>
+        <v>5066470447.041971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1670256787039158</v>
+        <v>0.2175208873658318</v>
       </c>
       <c r="G82" t="n">
-        <v>0.028510153254218</v>
+        <v>0.02123497536727807</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1809591149.599284</v>
+        <v>1625475194.207874</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1433426095463532</v>
+        <v>0.1344922705065102</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03042190708940006</v>
+        <v>0.02858805687946899</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1713827955.06027</v>
+        <v>2175506731.021071</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09886881022207485</v>
+        <v>0.0795583776492693</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03672301171645542</v>
+        <v>0.05062173757620719</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2239727931.422577</v>
+        <v>2527428510.407955</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1417104002719391</v>
+        <v>0.1523617648179969</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04295307345391305</v>
+        <v>0.05320134185076883</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2671556009.651961</v>
+        <v>1704912693.178617</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1515827916909008</v>
+        <v>0.1611689381797354</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02169456321553768</v>
+        <v>0.01827997055821376</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1193550519.182013</v>
+        <v>945752496.2045047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1160827619835503</v>
+        <v>0.1557859634517843</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03547461059993108</v>
+        <v>0.03529365128830329</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3731232609.734066</v>
+        <v>2459889886.377628</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1265401357529058</v>
+        <v>0.174627847299911</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0312685145677984</v>
+        <v>0.03445968427915595</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2408495031.907994</v>
+        <v>2892573996.014405</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09642283852281951</v>
+        <v>0.09997779885843426</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03789449991624108</v>
+        <v>0.03570403519227496</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1915550276.405314</v>
+        <v>1354576607.62278</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1046660475624259</v>
+        <v>0.1375465171649027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04051600999395233</v>
+        <v>0.03740969119040648</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1627171050.557576</v>
+        <v>1335496228.660631</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1897338529731487</v>
+        <v>0.1654116834246369</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04282325895648637</v>
+        <v>0.05416857468745886</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3003480617.204173</v>
+        <v>2464179085.89465</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073710372059481</v>
+        <v>0.09908707590992077</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04318552831951596</v>
+        <v>0.04170307053199111</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3307959858.656042</v>
+        <v>4438619280.800845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0942691613684357</v>
+        <v>0.09209176022410114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04128521651282446</v>
+        <v>0.03618860452046566</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2310355757.865419</v>
+        <v>1536539241.819026</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1183511575757401</v>
+        <v>0.1126752404936873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0400249194712019</v>
+        <v>0.02646412126019601</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2093443843.098351</v>
+        <v>2168703649.806747</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1371445003682286</v>
+        <v>0.1295658389321364</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04929362126312754</v>
+        <v>0.04307110369921214</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1876302487.406054</v>
+        <v>1893999503.74892</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1177493583271437</v>
+        <v>0.09504526383479384</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03380872217136225</v>
+        <v>0.04272316566428084</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4550813959.102918</v>
+        <v>3451217407.285309</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1618688660165758</v>
+        <v>0.1403721316709362</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0185983870323398</v>
+        <v>0.02527502068926029</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3007811653.210577</v>
+        <v>2475313494.759965</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126080647528712</v>
+        <v>0.1150847466753869</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03005440671785139</v>
+        <v>0.02377214052433575</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2078566373.475408</v>
+        <v>2660244753.630403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08958078035228763</v>
+        <v>0.14242668732984</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02224571447074103</v>
+        <v>0.02939775567271286</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4389890252.859723</v>
+        <v>3362884536.21661</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1515517318258074</v>
+        <v>0.1791219353794166</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02215676280118988</v>
+        <v>0.02060118208783613</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3257738222.383719</v>
+        <v>2804812454.226893</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2071172034226738</v>
+        <v>0.1665555434065779</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05739151939280639</v>
+        <v>0.04364602212980945</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_454.xlsx
+++ b/output/fit_clients/fit_round_454.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2352855021.416554</v>
+        <v>1968454053.752505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09814849928835671</v>
+        <v>0.108743943996309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0312022743487612</v>
+        <v>0.04515282819703043</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1971567206.28957</v>
+        <v>2229699075.444741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.116799238510877</v>
+        <v>0.1421005131413314</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04535110717021213</v>
+        <v>0.03859471098185985</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3847557595.649981</v>
+        <v>4607546345.692991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1655375360351274</v>
+        <v>0.1254257186055676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03557106432126484</v>
+        <v>0.03490493938003522</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>230</v>
+      </c>
+      <c r="J4" t="n">
+        <v>453</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.6517978420515</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3029069975.13203</v>
+        <v>3656462348.691826</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0826102751151207</v>
+        <v>0.08805814819434654</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0479133500764073</v>
+        <v>0.04804791615313503</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>190</v>
+      </c>
+      <c r="J5" t="n">
+        <v>454</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2272016731.514667</v>
+        <v>2780923501.848234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.116686338829915</v>
+        <v>0.1272686375625839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0405147513275168</v>
+        <v>0.04350221130216274</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2204528529.420143</v>
+        <v>2927481977.559554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07017615083865487</v>
+        <v>0.09614545043148906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03821405712682169</v>
+        <v>0.0340310414963605</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3969461907.898711</v>
+        <v>3834990337.877308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1841295190530786</v>
+        <v>0.1420873313330334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02657147419174114</v>
+        <v>0.02502685351195117</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>127</v>
+      </c>
+      <c r="J8" t="n">
+        <v>454</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44.15273302406639</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776266633.600101</v>
+        <v>1674933337.028102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1416466163508791</v>
+        <v>0.1575470685096512</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02341002196577755</v>
+        <v>0.02805461659423529</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4037687902.659537</v>
+        <v>5005500792.242053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1395179945472687</v>
+        <v>0.1799738500064506</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03674388499630356</v>
+        <v>0.0501143982163984</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>352</v>
+      </c>
+      <c r="J10" t="n">
+        <v>453</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.48963410135915</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3483073633.500276</v>
+        <v>3286454883.848127</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1883775292399307</v>
+        <v>0.1423080409107863</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04508938015030421</v>
+        <v>0.04101456047187772</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>450</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3301753121.554539</v>
+        <v>2161889301.659959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1634347916414276</v>
+        <v>0.1990249542657957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04121580415900473</v>
+        <v>0.04968932868552612</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4906318155.224816</v>
+        <v>4434674387.834237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07355533844003435</v>
+        <v>0.0786854554743123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02935737212691842</v>
+        <v>0.02480434409727472</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>236</v>
+      </c>
+      <c r="J13" t="n">
+        <v>453</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.33001678796837</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3594312869.284818</v>
+        <v>3184769614.173409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1352820201863469</v>
+        <v>0.1683969843378806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03950398885389058</v>
+        <v>0.03994673298191559</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>452</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1407286045.314788</v>
+        <v>1839709574.741971</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09397142681243599</v>
+        <v>0.09290223329307561</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03052604465637047</v>
+        <v>0.04607110829354893</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2822507960.069502</v>
+        <v>2154214301.356243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07022558759931145</v>
+        <v>0.112655629662655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05072561659869534</v>
+        <v>0.04428564843160483</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5034791648.143398</v>
+        <v>4979435679.975997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1592728495692977</v>
+        <v>0.1072529528045316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04685023130415499</v>
+        <v>0.04303314548880322</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>221</v>
+      </c>
+      <c r="J17" t="n">
+        <v>454</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2606352919.138191</v>
+        <v>3178197400.432879</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1739927527967316</v>
+        <v>0.1613658452849407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02874692078458034</v>
+        <v>0.02161082771262767</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1186457508.735258</v>
+        <v>1260108559.966398</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851676012859613</v>
+        <v>0.1773399501603156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02579325538062428</v>
+        <v>0.02504329477019724</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1854276017.54539</v>
+        <v>2577368665.242485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125268459418132</v>
+        <v>0.1515593720498216</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03157002813413</v>
+        <v>0.02911393655895329</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1882801462.964634</v>
+        <v>2293988154.277576</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07254226221667458</v>
+        <v>0.07901486868440198</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03414682995459435</v>
+        <v>0.04582415906461266</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2570140431.868927</v>
+        <v>3291608784.794362</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1170662947140167</v>
+        <v>0.1254962273372226</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03889402090804979</v>
+        <v>0.05084224275965862</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1199227098.376547</v>
+        <v>1526698115.816647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.134368045606114</v>
+        <v>0.1614096405374813</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05169917033693865</v>
+        <v>0.05232089078900858</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3989217991.007987</v>
+        <v>3466096832.39111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1454818640184752</v>
+        <v>0.1446489124329395</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02328070964298205</v>
+        <v>0.03252794922874388</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>144</v>
+      </c>
+      <c r="J24" t="n">
+        <v>453</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32.13411328512159</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1403158008.620881</v>
+        <v>1429672692.180754</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08814697099489263</v>
+        <v>0.1105892355343373</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02901806662684835</v>
+        <v>0.02549624062408312</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1100112324.283081</v>
+        <v>1342052159.608891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1040329104113795</v>
+        <v>0.1195016355951728</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02918244328975745</v>
+        <v>0.02722213957524846</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3608011338.275656</v>
+        <v>3559710002.632536</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1324937014249153</v>
+        <v>0.1156372174001492</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02725383984341364</v>
+        <v>0.02430911216300467</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>197</v>
+      </c>
+      <c r="J27" t="n">
+        <v>454</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2443902009.478167</v>
+        <v>3825138313.09131</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191994037595587</v>
+        <v>0.1156903583363284</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03664158740196181</v>
+        <v>0.03456741429829575</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>109</v>
+      </c>
+      <c r="J28" t="n">
+        <v>454</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4655492507.71165</v>
+        <v>5639857282.365445</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09909967724901128</v>
+        <v>0.1383730776921683</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03065688671843018</v>
+        <v>0.03683968771642963</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>368</v>
+      </c>
+      <c r="J29" t="n">
+        <v>453</v>
+      </c>
+      <c r="K29" t="n">
+        <v>31.52492532452445</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1855856153.329927</v>
+        <v>1824991678.999187</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1288697535515153</v>
+        <v>0.09850940828926461</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03836773563818318</v>
+        <v>0.02820732370115408</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1183059683.326967</v>
+        <v>963997726.1813207</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1058758818017193</v>
+        <v>0.1048333170737007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03385680801896324</v>
+        <v>0.03477369472077749</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1548294782.534789</v>
+        <v>1477280645.116047</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1134164349737476</v>
+        <v>0.1109637451216356</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03468560731926788</v>
+        <v>0.02901872430408432</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2368972591.204842</v>
+        <v>2912717151.172972</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2062641141171037</v>
+        <v>0.1658635912656851</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04292622153080924</v>
+        <v>0.05872361146629957</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1276044588.113661</v>
+        <v>1511545961.103114</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08261497543882249</v>
+        <v>0.07715300162558376</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0229628876026733</v>
+        <v>0.02383680587190802</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332303076.182346</v>
+        <v>857744079.5178682</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1003906472931458</v>
+        <v>0.08392232789466814</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03424231145967858</v>
+        <v>0.03067902097898173</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2102916553.224577</v>
+        <v>2031794054.48696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1282997863697231</v>
+        <v>0.1235765920213678</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02669134560836246</v>
+        <v>0.01974645767367632</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2072314555.867697</v>
+        <v>2115792030.032664</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0911310279898252</v>
+        <v>0.1078147449521757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0425861763899603</v>
+        <v>0.03139765348563087</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2124741851.002265</v>
+        <v>1627763246.577734</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1090599058613196</v>
+        <v>0.08384311697939323</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03167493535711085</v>
+        <v>0.0343868052345673</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170896218.27433</v>
+        <v>1370870629.697231</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1711598643898048</v>
+        <v>0.1367981197804432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02872365303536122</v>
+        <v>0.02909033322943869</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1170288088.080377</v>
+        <v>1375736425.790093</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1025941151755686</v>
+        <v>0.1258539043953661</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04142797295458964</v>
+        <v>0.04659611747722127</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1915595605.408737</v>
+        <v>2143379322.113946</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1378051414444813</v>
+        <v>0.103191980228623</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03876561907351252</v>
+        <v>0.04214187318947885</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3940921137.933788</v>
+        <v>3453183133.199606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1261222432653206</v>
+        <v>0.09773945303107906</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04194572347451359</v>
+        <v>0.0378438692792608</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>198</v>
+      </c>
+      <c r="J42" t="n">
+        <v>454</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2795749826.544498</v>
+        <v>2754561071.336048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1924338157073879</v>
+        <v>0.1483499184906823</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02195336501726933</v>
+        <v>0.01850028466021145</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1555777659.263929</v>
+        <v>2118483969.444799</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08954431549854078</v>
+        <v>0.07027135526484551</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02435801642806127</v>
+        <v>0.03586312966727161</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2087125501.668318</v>
+        <v>2049356288.371955</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1928779820559456</v>
+        <v>0.1280729200842972</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05098736805178353</v>
+        <v>0.04965228153320733</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4070857363.79975</v>
+        <v>4583481108.568874</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1500726581849303</v>
+        <v>0.1505881741919531</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04254422511869872</v>
+        <v>0.03756129142832283</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>269</v>
+      </c>
+      <c r="J46" t="n">
+        <v>454</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4572584640.238693</v>
+        <v>4810373201.531936</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1541661068651609</v>
+        <v>0.1991139292773943</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03639764116876733</v>
+        <v>0.04463833762352196</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>205</v>
+      </c>
+      <c r="J47" t="n">
+        <v>453</v>
+      </c>
+      <c r="K47" t="n">
+        <v>33.92108885532058</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2890790779.536972</v>
+        <v>3309035530.470531</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09740465647922361</v>
+        <v>0.09878896438266038</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02968942734690726</v>
+        <v>0.02890948777679465</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1337067218.405764</v>
+        <v>1339824633.52658</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1212374159895979</v>
+        <v>0.1898254205607055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03036812118694283</v>
+        <v>0.03412573769516069</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3457107904.669405</v>
+        <v>2681754236.625452</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1081080058556007</v>
+        <v>0.1334047952572114</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04516207100158476</v>
+        <v>0.04760164525615818</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>451</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1242177413.801335</v>
+        <v>1170865114.673951</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1296525034443509</v>
+        <v>0.1887311537189466</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04665364647255992</v>
+        <v>0.03468574920189565</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4915420744.399193</v>
+        <v>3260846073.932357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1301863030919096</v>
+        <v>0.08759367903026367</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04888345885334388</v>
+        <v>0.05629958486172846</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>258</v>
+      </c>
+      <c r="J52" t="n">
+        <v>453</v>
+      </c>
+      <c r="K52" t="n">
+        <v>20.92118191438775</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2345604265.637544</v>
+        <v>2677250536.481997</v>
       </c>
       <c r="F53" t="n">
-        <v>0.133753655508522</v>
+        <v>0.1498129547057074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02397206206755595</v>
+        <v>0.02379207806068338</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4963165797.655515</v>
+        <v>3169470601.546301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1374952694198326</v>
+        <v>0.1557331037309107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04387043066663589</v>
+        <v>0.04989747590466113</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>240</v>
+      </c>
+      <c r="J54" t="n">
+        <v>453</v>
+      </c>
+      <c r="K54" t="n">
+        <v>22.20078555999754</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4151645930.302278</v>
+        <v>3981724227.733603</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2179168066690929</v>
+        <v>0.1784218167716198</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02655883467190295</v>
+        <v>0.02809545555428411</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>225</v>
+      </c>
+      <c r="J55" t="n">
+        <v>454</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1487386382.93565</v>
+        <v>1386132305.186985</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1074585140763458</v>
+        <v>0.1493065271139854</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05365902151829335</v>
+        <v>0.03600851378197081</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4334951064.42453</v>
+        <v>2899766816.90545</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1380903432517694</v>
+        <v>0.1239993018480381</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831080479410843</v>
+        <v>0.02496522691029806</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1366835823.461275</v>
+        <v>1739439306.816541</v>
       </c>
       <c r="F58" t="n">
-        <v>0.202873027020457</v>
+        <v>0.1862226598152896</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02542033356162785</v>
+        <v>0.02690981714945017</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5348305851.720627</v>
+        <v>4395140940.398532</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1075293773714943</v>
+        <v>0.08979696463463122</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04592178332813786</v>
+        <v>0.04917254283386326</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>222</v>
+      </c>
+      <c r="J59" t="n">
+        <v>454</v>
+      </c>
+      <c r="K59" t="n">
+        <v>36.80613760314975</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3249837348.146305</v>
+        <v>3164143328.734298</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064595166191182</v>
+        <v>0.1275994344891759</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0296922966264324</v>
+        <v>0.03345717854112323</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>87</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="n">
+        <v>38.9925716669232</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2129984630.15793</v>
+        <v>2631761666.778596</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1593426722379688</v>
+        <v>0.1460565343622639</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03015767666031095</v>
+        <v>0.03220774682281453</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1669112981.610254</v>
+        <v>1891182830.795371</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1737978255424396</v>
+        <v>0.1412472367464969</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04765935495182264</v>
+        <v>0.03020406721331894</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3604227290.290029</v>
+        <v>5117383590.059152</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1071589117845038</v>
+        <v>0.06855802652457754</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03170029759277734</v>
+        <v>0.03540739095255922</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>227</v>
+      </c>
+      <c r="J63" t="n">
+        <v>453</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31.47829086503701</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4896653459.167329</v>
+        <v>4227846478.128445</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1771669719955277</v>
+        <v>0.185840820437725</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03292661618285044</v>
+        <v>0.02506757402543726</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>227</v>
+      </c>
+      <c r="J64" t="n">
+        <v>454</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5095294835.152386</v>
+        <v>5630860685.45677</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1468675969313631</v>
+        <v>0.1436773635717372</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02847837964956484</v>
+        <v>0.02248729611724599</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>324</v>
+      </c>
+      <c r="J65" t="n">
+        <v>454</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4742786139.537786</v>
+        <v>3659426060.346109</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1631793217499775</v>
+        <v>0.1600506826836578</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03806695171790811</v>
+        <v>0.03543026116050511</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>224</v>
+      </c>
+      <c r="J66" t="n">
+        <v>453</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.37939287815331</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3350853644.636641</v>
+        <v>3513115758.693258</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08533800454064065</v>
+        <v>0.09763437288022767</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03885675789431017</v>
+        <v>0.0448662064056602</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>454</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4144132441.557008</v>
+        <v>4752091915.028868</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1542240433713387</v>
+        <v>0.1564641044098726</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04841903923961813</v>
+        <v>0.05082596905275096</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>247</v>
+      </c>
+      <c r="J68" t="n">
+        <v>453</v>
+      </c>
+      <c r="K68" t="n">
+        <v>34.22373809561862</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2319089835.789822</v>
+        <v>1536496824.015684</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1771071985805725</v>
+        <v>0.1114297616277125</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05812913616746407</v>
+        <v>0.05756394293472688</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2799355943.657809</v>
+        <v>3272252893.054633</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0996077280103229</v>
+        <v>0.07751953120676762</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0377976258719732</v>
+        <v>0.03577535085431273</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5621763804.103412</v>
+        <v>4578919809.971146</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1644021960024928</v>
+        <v>0.1659653987619647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02912740843932848</v>
+        <v>0.02061231069267927</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>310</v>
+      </c>
+      <c r="J71" t="n">
+        <v>454</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1802519326.471445</v>
+        <v>2218323921.532511</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036219811982065</v>
+        <v>0.08995238864314857</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04107032039396454</v>
+        <v>0.04040676466825597</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3523437415.221021</v>
+        <v>3388433511.724471</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1081568002626849</v>
+        <v>0.09628276521587473</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04371173084777778</v>
+        <v>0.03540849279409138</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2957184589.6954</v>
+        <v>3638629053.064588</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1153458977422372</v>
+        <v>0.1235746137483416</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02472327119105261</v>
+        <v>0.03206600625215533</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>131</v>
+      </c>
+      <c r="J74" t="n">
+        <v>454</v>
+      </c>
+      <c r="K74" t="n">
+        <v>42.31290747205166</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2041445543.49551</v>
+        <v>2406617882.248749</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1446446007171124</v>
+        <v>0.1567515344032429</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02494542041337852</v>
+        <v>0.02513857276238656</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3669333210.77426</v>
+        <v>3639286633.983762</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08825198430416395</v>
+        <v>0.0812927171973212</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02549483693255501</v>
+        <v>0.03102046322787858</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>217</v>
+      </c>
+      <c r="J76" t="n">
+        <v>453</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.21748778267227</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1620419580.807054</v>
+        <v>1507903088.089881</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1267226746072685</v>
+        <v>0.1420823019347361</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02056757035156422</v>
+        <v>0.02716813427770463</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3265351840.487564</v>
+        <v>3982727976.2205</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08484248961049368</v>
+        <v>0.08743027435655051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0528956862459591</v>
+        <v>0.05676314433878325</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>226</v>
+      </c>
+      <c r="J78" t="n">
+        <v>454</v>
+      </c>
+      <c r="K78" t="n">
+        <v>36.55129537416909</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1211282232.510529</v>
+        <v>1792656782.819356</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1697708171441261</v>
+        <v>0.1232225008246886</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03116809888261093</v>
+        <v>0.03963578312166273</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3485732120.952898</v>
+        <v>4427840827.780627</v>
       </c>
       <c r="F80" t="n">
-        <v>0.109872451531163</v>
+        <v>0.08700574432191194</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02545900770935143</v>
+        <v>0.02386439700505261</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>221</v>
+      </c>
+      <c r="J80" t="n">
+        <v>454</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3189354278.762652</v>
+        <v>3776154907.257742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.134192771237983</v>
+        <v>0.1037303731546851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02436531587544113</v>
+        <v>0.02259498953293457</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>211</v>
+      </c>
+      <c r="J81" t="n">
+        <v>454</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5066470447.041971</v>
+        <v>4859252150.065221</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2175208873658318</v>
+        <v>0.1805509951400054</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02123497536727807</v>
+        <v>0.02277665117553522</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>302</v>
+      </c>
+      <c r="J82" t="n">
+        <v>453</v>
+      </c>
+      <c r="K82" t="n">
+        <v>34.03578683676233</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1625475194.207874</v>
+        <v>1578996547.83615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1344922705065102</v>
+        <v>0.1068326392454568</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02858805687946899</v>
+        <v>0.03147966655603351</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2175506731.021071</v>
+        <v>2336383944.804229</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0795583776492693</v>
+        <v>0.09267590286521531</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05062173757620719</v>
+        <v>0.03832028568804158</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2527428510.407955</v>
+        <v>2906408296.144636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1523617648179969</v>
+        <v>0.1471317777859208</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05320134185076883</v>
+        <v>0.0522058329195501</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1704912693.178617</v>
+        <v>2370958984.160163</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1611689381797354</v>
+        <v>0.1386116881328483</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01827997055821376</v>
+        <v>0.01762291679518149</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>945752496.2045047</v>
+        <v>1228635748.080606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1557859634517843</v>
+        <v>0.1511679389706267</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03529365128830329</v>
+        <v>0.04138639875651607</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2459889886.377628</v>
+        <v>2574700351.568252</v>
       </c>
       <c r="F88" t="n">
-        <v>0.174627847299911</v>
+        <v>0.1734810464761938</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03445968427915595</v>
+        <v>0.03189113166010887</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2892573996.014405</v>
+        <v>3128653207.793418</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09997779885843426</v>
+        <v>0.120511558892867</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03570403519227496</v>
+        <v>0.03996785082100177</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1354576607.62278</v>
+        <v>1895509320.487825</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1375465171649027</v>
+        <v>0.130783243508728</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03740969119040648</v>
+        <v>0.04406169834909583</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1335496228.660631</v>
+        <v>1430818665.058415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1654116834246369</v>
+        <v>0.1611779340089543</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05416857468745886</v>
+        <v>0.05141818414421599</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464179085.89465</v>
+        <v>2908897769.661496</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09908707590992077</v>
+        <v>0.09652850694400195</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04170307053199111</v>
+        <v>0.02944352176520085</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4438619280.800845</v>
+        <v>3189005550.821644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09209176022410114</v>
+        <v>0.09934036403500944</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03618860452046566</v>
+        <v>0.04273091306996218</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>218</v>
+      </c>
+      <c r="J93" t="n">
+        <v>453</v>
+      </c>
+      <c r="K93" t="n">
+        <v>22.32679909470191</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1536539241.819026</v>
+        <v>1966576744.350816</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1126752404936873</v>
+        <v>0.1532827798342343</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02646412126019601</v>
+        <v>0.04115630808814338</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2168703649.806747</v>
+        <v>2645141183.943537</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1295658389321364</v>
+        <v>0.100518768552373</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04307110369921214</v>
+        <v>0.04081293587143928</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1893999503.74892</v>
+        <v>1471029558.341839</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09504526383479384</v>
+        <v>0.1044956618924673</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04272316566428084</v>
+        <v>0.03118872707892537</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3451217407.285309</v>
+        <v>4221102782.778847</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1403721316709362</v>
+        <v>0.1269739602700113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02527502068926029</v>
+        <v>0.02385365544009852</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>237</v>
+      </c>
+      <c r="J97" t="n">
+        <v>453</v>
+      </c>
+      <c r="K97" t="n">
+        <v>35.22255114765579</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2475313494.759965</v>
+        <v>3125857950.220142</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1150847466753869</v>
+        <v>0.08524493431022249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02377214052433575</v>
+        <v>0.02747462195155737</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2660244753.630403</v>
+        <v>2433807068.589853</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14242668732984</v>
+        <v>0.1392711358091771</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02939775567271286</v>
+        <v>0.03080087289068113</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3362884536.21661</v>
+        <v>3874837175.796645</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1791219353794166</v>
+        <v>0.1541936597642129</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02060118208783613</v>
+        <v>0.02795886435915678</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>211</v>
+      </c>
+      <c r="J100" t="n">
+        <v>454</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2804812454.226893</v>
+        <v>2791701908.197772</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1665555434065779</v>
+        <v>0.1781968096638684</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04364602212980945</v>
+        <v>0.05702488704825411</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
